--- a/aipg/helloworld.xlsx
+++ b/aipg/helloworld.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -399,7 +400,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
